--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ITE-3962 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C147038F-5FC0-49F5-A7F1-73D922F15404}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEAE584-848F-4DB9-B423-5B21C41049CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{9354FD65-94B9-4514-A0B0-356B2EBD6D72}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Username</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>MarivelDreibelbis@gmail.com</t>
+  </si>
+  <si>
+    <t>Keenan Perre</t>
+  </si>
+  <si>
+    <t>KeenanPerre@gmail.com</t>
+  </si>
+  <si>
+    <t>C5zcSeYt</t>
   </si>
 </sst>
 </file>
@@ -529,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E58490-F4C6-4983-9B91-386AF1913494}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,6 +703,17 @@
       </c>
       <c r="C15" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -711,8 +731,9 @@
     <hyperlink ref="B13" r:id="rId11" xr:uid="{44B2A86E-CD5C-4314-85AF-15A26EBB6E10}"/>
     <hyperlink ref="B14" r:id="rId12" xr:uid="{9CD4322A-5134-49B3-AF7B-1509C4C3A53C}"/>
     <hyperlink ref="B15" r:id="rId13" xr:uid="{401C8062-B240-449D-986C-8B9348D71AC4}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{6474B3F6-68B1-4222-B7BE-4CA8991E1807}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -212,13 +212,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -228,6 +231,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,9 +543,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="32.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="32.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -555,17 +561,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -573,10 +579,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -584,7 +590,7 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -595,7 +601,7 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -606,7 +612,7 @@
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -617,7 +623,7 @@
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -628,7 +634,7 @@
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -639,7 +645,7 @@
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -650,7 +656,7 @@
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -661,7 +667,7 @@
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -672,7 +678,7 @@
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -683,7 +689,7 @@
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -694,7 +700,7 @@
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -705,7 +711,7 @@
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ITE-3962 project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A7F34A-B0BF-4198-B1C0-7444F4146BF1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="users"/>
+    <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Username</t>
   </si>
@@ -149,14 +155,55 @@
   </si>
   <si>
     <t>C5zcSeYt</t>
+  </si>
+  <si>
+    <t>demo user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username - </t>
+  </si>
+  <si>
+    <t>userdemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email - </t>
+  </si>
+  <si>
+    <t>userdemo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password - </t>
+  </si>
+  <si>
+    <t>demo12345</t>
+  </si>
+  <si>
+    <t>demo Admin</t>
+  </si>
+  <si>
+    <t>username-</t>
+  </si>
+  <si>
+    <t>admindemo</t>
+  </si>
+  <si>
+    <t>email-</t>
+  </si>
+  <si>
+    <t>admindemo@gmail.com</t>
+  </si>
+  <si>
+    <t>password-</t>
+  </si>
+  <si>
+    <t>iamadmin123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,9 +227,25 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF261c6a"/>
+      <color rgb="FF261C6A"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,41 +272,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -254,10 +322,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -295,71 +363,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,7 +455,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -410,11 +478,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -423,13 +491,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -439,7 +507,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -448,7 +516,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -457,7 +525,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -465,10 +533,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -533,22 +601,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="32.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,13 +630,18 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="E1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -574,8 +651,14 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -585,8 +668,14 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -596,8 +685,14 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -608,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -618,8 +713,13 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="E7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -630,7 +730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -640,8 +740,14 @@
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -651,8 +757,14 @@
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -662,8 +774,14 @@
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -674,7 +792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -685,7 +803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -696,7 +814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -707,7 +825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -719,6 +837,15 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{6731D85F-22E9-4485-ADCB-AAD14E1A0FF4}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{4E6000CE-4DA2-4622-BD6A-2A03122F483D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>